--- a/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="BD8911F76DB" lockStructure="1"/>
+  <workbookProtection workbookPassword="27E04F205F9" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BD8911F76DB"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27E04F205F9"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="BD8911F76DB"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27E04F205F9"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="27E04F205F9" lockStructure="1"/>
+  <workbookProtection workbookPassword="169319341E322" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,9 +36494,9 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27E04F205F9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="169319341E322"/>
   <dataValidations count="1">
-    <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with nine characters" type="textLength" operator="equal">
+    <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with 9 characters" type="textLength" operator="equal">
       <formula1>9</formula1>
     </dataValidation>
   </dataValidations>
@@ -36532,9 +36532,9 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="27E04F205F9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="169319341E322"/>
   <dataValidations count="1">
-    <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+    <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with 12 characters" type="textLength" operator="equal">
       <formula1>12</formula1>
     </dataValidation>
   </dataValidations>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="2D53FF8FA7D9" lockStructure="1"/>
+  <workbookProtection workbookPassword="2044430A54C4" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2D53FF8FA7D9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2044430A54C4"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with 9 characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2D53FF8FA7D9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2044430A54C4"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with 12 characters" type="textLength" operator="equal">
       <formula1>12</formula1>

--- a/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
+++ b/backend/schemas/output/excel/xlsx/secondary-auditors-workbook.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="2044430A54C4" lockStructure="1"/>
+  <workbookProtection workbookPassword="1389B23BF44" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -36494,7 +36494,7 @@
       <c r="J2999" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2044430A54C4"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="1389B23BF44"/>
   <dataValidations count="1">
     <dataValidation sqref="B2:B3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 9" error="Expecting something with 9 characters" type="textLength" operator="equal">
       <formula1>9</formula1>
@@ -36532,7 +36532,7 @@
       <c r="A2" s="2" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2044430A54C4"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="1389B23BF44"/>
   <dataValidations count="1">
     <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must be length of 12" error="Expecting something with 12 characters" type="textLength" operator="equal">
       <formula1>12</formula1>
